--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_243.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_243.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,565 +488,635 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_28</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2107843137254902</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'C']]</t>
-        </is>
+          <t>jaah_3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05085470085470085</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'A']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['Bb:7', 'Eb', 'Bb:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(4.476213, 15.8656)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj'], ['C:7', 'F:maj', 'C:7/A#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(6.09, 13.659705)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+          <t>[('0:00:31.890000', '0:00:34.570000'), ('0:00:44.070000', '0:00:46.310000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:06.380000', '0:00:12.500000'), ('0:01:12.500000', '0:01:22.080000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1804812834224599</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'F#']]</t>
-        </is>
+          <t>isophonics_166</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2527173913043478</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['G', 'G', 'D:7'], ['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(15.880484, 21.522933)]</t>
+          <t>[['F:maj', 'F:maj/A', 'C:7'], ['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(8.158789, 22.58999)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:00.440395', '0:00:12.905056'), ('0:00:17.839297', '0:00:22.785147')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:21.720000', '0:00:24.320000'), ('0:00:46.600000', '0:00:49.040000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07984496124031007</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>[['E:7', 'A:min', 'G#:dim7', 'A:min'], ['E:7', 'A:min', 'A:min', 'B:hdim7/D'], ['A:min', 'G#:dim7', 'A:min', 'G#:dim7']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(27.76, 40.18)]</t>
+          <t>[['G:7', 'C:min', 'B:dim7/C', 'C:min'], ['G:7', 'C:min', 'C:min', 'D:hdim7/C'], ['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(18.16, 47.44)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:20.480000', '0:00:26.300000'), ('0:00:14.780000', '0:00:20.480000'), ('0:00:21.900000', '0:00:27.820000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:06.920000', '0:01:15.860000'), ('0:00:21.420000', '0:00:28.060000'), ('0:00:01.260000', '0:00:07.300000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1777777777777778</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F', 'C/3', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.22, 5.02)]</t>
+          <t>[['A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(10.88, 22.2)]</t>
+          <t>[('0:01:16.132993', '0:01:18.064810')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:31.840929', '0:00:39.410634')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_69</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_78</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1366223908918406</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(187.92, 190.22), (23.18, 30.14)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(49.26, 52.76), (111.62, 126.86)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:25.015959', '0:00:36.625937')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:39.724104', '0:00:43.706326')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2611607142857143</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(61.32, 63.7)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(65.81034, 71.679931)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:24.280000', '0:00:51.080000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:56.700000', '0:01:59.480000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05307692307692308</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(24.29, 28.79)]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(6.12, 11.62)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:34.780000', '0:01:54.140000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:30.800000', '0:00:45.300000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1394736842105263</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(0.420489, 3.744303)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(47.187, 57.707)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:04:01.220000', '0:04:15.460000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:21.080000', '0:00:24.960000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36), (1.54, 6.68)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(129.06, 134.2), (2.3, 7.04)]</t>
+          <t>[('0:00:18.300000', '0:00:21.940000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:03:49.340000', '0:04:05.220000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1155080213903743</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.421247, 3.953211)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(8.482392, 11.666439)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1625</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(70.203514, 87.246961)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(5.91585, 14.867142)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:04.760000', '0:01:58.780000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:05.460000', '0:02:06.860000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1183035714285714</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'A/b7'], ['G', 'A', 'A/b7']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'A/7', 'A/b7'], ['G', 'A', 'A/7']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(36.173061, 41.86195), (43.998185, 47.539229)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(84.787426, 86.815269), (83.103979, 86.183398)]</t>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
+          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_12</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2848837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_92</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(30.06, 43.78)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(63.12, 69.42)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:00.360000', '0:00:08.660000'), ('0:01:13.400000', '0:01:21.180000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.800000', '0:00:09.520000'), ('0:01:10.800000', '0:01:18.300000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(118.18, 123.04)]</t>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1049,68 +1124,36 @@
           <t>schubert-winterreise_78</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>0.2196969696969697</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min']]</t>
-        </is>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(13.34, 16.08)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(7.4, 12.02)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:53.120000', '0:01:14.300000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_198</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_25</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2729885057471264</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B'], ['B:7', 'E:maj', 'B:7', 'E:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb', 'Bb'], ['F:7', 'Bb', 'F:7', 'Bb']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(212.6, 224.4), (16.56, 37.82)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(50.13, 55.78), (48.25, 53.91)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
